--- a/results.xlsx
+++ b/results.xlsx
@@ -549,37 +549,37 @@
     <t>NT_proBNP_res_missing</t>
   </si>
   <si>
-    <t>6.8166666667; 8.8375</t>
+    <t>6.82; 8.84</t>
   </si>
   <si>
     <t>5.3; 18.0</t>
   </si>
   <si>
-    <t>92.15; 131.3714285725</t>
+    <t>92.3; 131.34</t>
   </si>
   <si>
     <t>48.0; 291.0</t>
   </si>
   <si>
-    <t>39.666666667; 54.93750000025</t>
+    <t>39.67; 54.96</t>
   </si>
   <si>
     <t>17.33; 154.0</t>
   </si>
   <si>
-    <t>162.1298701275; 210.4375</t>
+    <t>162.12; 210.62</t>
   </si>
   <si>
     <t>84.14; 487.0</t>
   </si>
   <si>
-    <t>106.0; 221.7500000025</t>
+    <t>106.0; 221.83</t>
   </si>
   <si>
     <t>42.0; 1332.0</t>
   </si>
   <si>
-    <t>0.629166666675; 0.9637499999749999</t>
+    <t>0.63; 0.96</t>
   </si>
   <si>
     <t>0.36; 4.86</t>
@@ -591,19 +591,19 @@
     <t>6.7; 45.1</t>
   </si>
   <si>
-    <t>15.1375; 209.175</t>
+    <t>15.18; 204.95</t>
   </si>
   <si>
     <t>4.1; 1770.5</t>
   </si>
   <si>
-    <t>6.82642857145; 8.9</t>
+    <t>6.82; 8.9</t>
   </si>
   <si>
     <t>5.0; 17.0</t>
   </si>
   <si>
-    <t>90.6875; 131.8333333325</t>
+    <t>90.62; 131.92</t>
   </si>
   <si>
     <t>25.0; 300.0</t>
@@ -615,31 +615,31 @@
     <t>16.0; 115.0</t>
   </si>
   <si>
-    <t>161.2916666675; 214.75</t>
+    <t>161.58; 214.5</t>
   </si>
   <si>
     <t>91.0; 326.0</t>
   </si>
   <si>
-    <t>102.0; 212.8333333325</t>
+    <t>102.0; 212.67</t>
   </si>
   <si>
     <t>39.0; 1783.0</t>
   </si>
   <si>
-    <t>0.6333333333; 0.9384615384999999</t>
+    <t>0.63; 0.94</t>
   </si>
   <si>
     <t>0.3; 10.49</t>
   </si>
   <si>
-    <t>12.05; 18.4166666665</t>
+    <t>12.05; 18.42</t>
   </si>
   <si>
     <t>2.8; 81.57</t>
   </si>
   <si>
-    <t>18.224999999999998; 247.24999999999997</t>
+    <t>17.75; 250.3</t>
   </si>
   <si>
     <t>3.8; 2073.6</t>
@@ -1185,7 +1185,7 @@
     <t>1.0; 8.0</t>
   </si>
   <si>
-    <t>222.75; 3821.0</t>
+    <t>223.5; 3820.0</t>
   </si>
   <si>
     <t>6.0; 789510.0</t>
@@ -1245,7 +1245,7 @@
     <t>0; 72</t>
   </si>
   <si>
-    <t>250.0; 4155.25</t>
+    <t>250.0; 4152.5</t>
   </si>
   <si>
     <t>4.0; 2081445.0</t>
@@ -1455,25 +1455,25 @@
     <t>rx_non_dm_cost_missing</t>
   </si>
   <si>
-    <t>118440.4; 662252.032</t>
+    <t>118440.4; 662252.03</t>
   </si>
   <si>
     <t>50.75; 15077067.87</t>
   </si>
   <si>
-    <t>202375.72575; 1175233.33675</t>
+    <t>202384.85; 1174746.37</t>
   </si>
   <si>
     <t>50.75; 14866157.17</t>
   </si>
   <si>
-    <t>211181.425; 1350535.04225</t>
+    <t>211254.45; 1350046.66</t>
   </si>
   <si>
     <t>20702.0; 14866157.17</t>
   </si>
   <si>
-    <t>174758.455; 585268.0669999999</t>
+    <t>174706.01; 585389.43</t>
   </si>
   <si>
     <t>50.75; 4954206.04</t>
@@ -1491,37 +1491,37 @@
     <t>730.0; 3025146.7</t>
   </si>
   <si>
-    <t>26405.800000000003; 142265.6165</t>
+    <t>26407.2; 142260.36</t>
   </si>
   <si>
     <t>730.0; 8690621.0</t>
   </si>
   <si>
-    <t>13727.771; 186147.9655</t>
+    <t>13727.77; 186147.97</t>
   </si>
   <si>
     <t>1.36; 10188196.65</t>
   </si>
   <si>
-    <t>1932.8920000000003; 78952.5</t>
+    <t>1932.89; 78952.5</t>
   </si>
   <si>
     <t>4.95; 4028716.0</t>
   </si>
   <si>
-    <t>10506.400000000001; 127332.22499999999</t>
+    <t>10494.6; 127333.67</t>
   </si>
   <si>
     <t>1.36; 10183284.3</t>
   </si>
   <si>
-    <t>93429.325; 636254.575</t>
+    <t>93429.32; 636254.57</t>
   </si>
   <si>
     <t>252.0; 295955375.85</t>
   </si>
   <si>
-    <t>221738.87600000002; 1166305.1400000001</t>
+    <t>221791.22; 1166167.21</t>
   </si>
   <si>
     <t>252.0; 78252001.25</t>
@@ -1533,7 +1533,7 @@
     <t>833.7; 10604382.14</t>
   </si>
   <si>
-    <t>184895.0; 602266.91825</t>
+    <t>184740.0; 602964.8</t>
   </si>
   <si>
     <t>252.0; 72255404.17</t>
@@ -1557,19 +1557,19 @@
     <t>720.0; 217703374.6</t>
   </si>
   <si>
-    <t>9514.05; 125217.775</t>
+    <t>9514.05; 125217.78</t>
   </si>
   <si>
     <t>5.6; 293022674.14</t>
   </si>
   <si>
-    <t>610.1700000000001; 21535.725</t>
+    <t>609.9; 21544.35</t>
   </si>
   <si>
     <t>0.42; 2336427.8</t>
   </si>
   <si>
-    <t>8304.625; 106727.62499999999</t>
+    <t>8305.65; 106714.35</t>
   </si>
   <si>
     <t>2.68; 293016698.76</t>
